--- a/GUIDED NOTES/ExampleData.xlsx
+++ b/GUIDED NOTES/ExampleData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCAC743-1A7B-47B6-9884-C1202BD4FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>screen time (mins)</t>
+  </si>
+  <si>
+    <t>daynames_ 1</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>daynames_ 2</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>daynames_ 3</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>daynames_ 4</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>daynames_ 5</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>daynames_ 6</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>daynames_ 7</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>daynames_ 8</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>daynames_ 9</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>daynames_10</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>0.016667 min</t>
   </si>
 </sst>
 </file>
@@ -233,19 +305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -256,19 +328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -279,19 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -302,19 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -325,19 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -348,24 +420,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -387,7 +459,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.49998474074526"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,7 +468,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519242"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,97 +552,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="true"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,29 +956,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.82421875" customWidth="true"/>
+    <col min="3" max="3" width="11.82421875" customWidth="true"/>
+    <col min="4" max="4" width="11.82421875" customWidth="true"/>
+    <col min="5" max="5" width="11.82421875" customWidth="true"/>
+    <col min="6" max="6" width="11.82421875" customWidth="true"/>
+    <col min="7" max="7" width="11.82421875" customWidth="true"/>
+    <col min="8" max="8" width="11.82421875" customWidth="true"/>
+    <col min="9" max="9" width="11.82421875" customWidth="true"/>
+    <col min="10" max="10" width="12.37890625" customWidth="true"/>
+    <col min="11" max="11" width="4.93359375" customWidth="true"/>
+    <col min="12" max="12" width="5.7109375" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>136</v>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -912,7 +1060,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -920,7 +1068,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -928,7 +1076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -936,7 +1084,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -944,7 +1092,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -952,7 +1100,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -960,7 +1108,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -968,7 +1116,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
